--- a/Tables/PCA_ab_reason_noadjust.xlsx
+++ b/Tables/PCA_ab_reason_noadjust.xlsx
@@ -84,10 +84,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.50576964947483416</v>
+        <v>0.50576964947483405</v>
       </c>
       <c r="C1">
-        <v>0.28165890510409969</v>
+        <v>0.2816589051040998</v>
       </c>
     </row>
     <row r="2">
@@ -95,10 +95,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.15351982404161552</v>
+        <v>0.15351982404161618</v>
       </c>
       <c r="C2">
-        <v>-0.4277277121801954</v>
+        <v>-0.42772771218019306</v>
       </c>
     </row>
     <row r="3">
@@ -106,10 +106,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.59849596004192007</v>
+        <v>0.59849596004192018</v>
       </c>
       <c r="C3">
-        <v>0.20259330836538583</v>
+        <v>0.20259330836538592</v>
       </c>
     </row>
     <row r="4">
@@ -117,10 +117,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.21639956975126387</v>
+        <v>-0.21639956975126343</v>
       </c>
       <c r="C4">
-        <v>0.66591041248829441</v>
+        <v>0.66591041248829541</v>
       </c>
     </row>
     <row r="5">
@@ -128,10 +128,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.42001024081632315</v>
+        <v>0.42001024081632232</v>
       </c>
       <c r="C5">
-        <v>0.25627595048040636</v>
+        <v>0.25627595048040736</v>
       </c>
     </row>
     <row r="6">
@@ -139,10 +139,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.37308703398901072</v>
+        <v>0.37308703398901161</v>
       </c>
       <c r="C6">
-        <v>-0.43308102770642926</v>
+        <v>-0.43308102770642881</v>
       </c>
     </row>
   </sheetData>
@@ -159,10 +159,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.57657430939880694</v>
+        <v>0.57657430939880683</v>
       </c>
       <c r="C1">
-        <v>-0.051930173267819818</v>
+        <v>-0.051930173267819874</v>
       </c>
     </row>
     <row r="2">
@@ -170,10 +170,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.033460305780856736</v>
+        <v>-0.033460305780855265</v>
       </c>
       <c r="C2">
-        <v>0.45321048098838607</v>
+        <v>0.45321048098838418</v>
       </c>
     </row>
     <row r="3">
@@ -181,10 +181,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.62918938643420941</v>
+        <v>0.62918938643420952</v>
       </c>
       <c r="C3">
-        <v>0.057984297697523252</v>
+        <v>0.057984297697523335</v>
       </c>
     </row>
     <row r="4">
@@ -192,10 +192,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.072752297338701227</v>
+        <v>0.072752297338702143</v>
       </c>
       <c r="C4">
-        <v>-0.69639970884600721</v>
+        <v>-0.69639970884600799</v>
       </c>
     </row>
     <row r="5">
@@ -203,10 +203,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.48789819414165592</v>
+        <v>0.48789819414165547</v>
       </c>
       <c r="C5">
-        <v>-0.063571356274131435</v>
+        <v>-0.063571356274132601</v>
       </c>
     </row>
     <row r="6">
@@ -214,7 +214,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.16500195472216578</v>
+        <v>0.16500195472216664</v>
       </c>
       <c r="C6">
         <v>0.54729102534925467</v>
@@ -234,10 +234,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.57669319867093327</v>
+        <v>0.57669319867093316</v>
       </c>
       <c r="C1">
-        <v>-0.053062280904799891</v>
+        <v>-0.053062280904800065</v>
       </c>
     </row>
     <row r="2">
@@ -245,10 +245,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.034466481631515652</v>
+        <v>-0.034466481631514258</v>
       </c>
       <c r="C2">
-        <v>0.45327925099288219</v>
+        <v>0.45327925099288019</v>
       </c>
     </row>
     <row r="3">
@@ -259,7 +259,7 @@
         <v>0.62906463538540414</v>
       </c>
       <c r="C3">
-        <v>0.056749661960085768</v>
+        <v>0.056749661960085698</v>
       </c>
     </row>
     <row r="4">
@@ -267,10 +267,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0742985134147955</v>
+        <v>0.074298513414796555</v>
       </c>
       <c r="C4">
-        <v>-0.69654726342670492</v>
+        <v>-0.69654726342670548</v>
       </c>
     </row>
     <row r="5">
@@ -278,10 +278,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.48804236550571661</v>
+        <v>0.48804236550571617</v>
       </c>
       <c r="C5">
-        <v>-0.064529481614515119</v>
+        <v>-0.064529481614516382</v>
       </c>
     </row>
     <row r="6">
@@ -289,10 +289,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.16378820062675276</v>
+        <v>0.16378820062675351</v>
       </c>
       <c r="C6">
-        <v>0.5469708769009658</v>
+        <v>0.54697087690096557</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/PCA_ab_reason_noadjust.xlsx
+++ b/Tables/PCA_ab_reason_noadjust.xlsx
@@ -87,7 +87,7 @@
         <v>0.50576964947483405</v>
       </c>
       <c r="C1">
-        <v>0.2816589051040998</v>
+        <v>0.28165890510409897</v>
       </c>
     </row>
     <row r="2">
@@ -95,10 +95,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.15351982404161618</v>
+        <v>0.15351982404161627</v>
       </c>
       <c r="C2">
-        <v>-0.42772771218019306</v>
+        <v>-0.42772771218019146</v>
       </c>
     </row>
     <row r="3">
@@ -106,10 +106,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.59849596004192018</v>
+        <v>0.59849596004191985</v>
       </c>
       <c r="C3">
-        <v>0.20259330836538592</v>
+        <v>0.20259330836538567</v>
       </c>
     </row>
     <row r="4">
@@ -117,10 +117,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.21639956975126343</v>
+        <v>-0.21639956975126309</v>
       </c>
       <c r="C4">
-        <v>0.66591041248829541</v>
+        <v>0.66591041248829674</v>
       </c>
     </row>
     <row r="5">
@@ -128,10 +128,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.42001024081632232</v>
+        <v>0.42001024081632243</v>
       </c>
       <c r="C5">
-        <v>0.25627595048040736</v>
+        <v>0.25627595048040769</v>
       </c>
     </row>
     <row r="6">
@@ -139,10 +139,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.37308703398901161</v>
+        <v>0.3730870339890115</v>
       </c>
       <c r="C6">
-        <v>-0.43308102770642881</v>
+        <v>-0.43308102770642809</v>
       </c>
     </row>
   </sheetData>
@@ -159,10 +159,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.57657430939880683</v>
+        <v>0.57657430939880638</v>
       </c>
       <c r="C1">
-        <v>-0.051930173267819874</v>
+        <v>-0.051930173267819624</v>
       </c>
     </row>
     <row r="2">
@@ -170,10 +170,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.033460305780855265</v>
+        <v>-0.033460305780854155</v>
       </c>
       <c r="C2">
-        <v>0.45321048098838418</v>
+        <v>0.45321048098838279</v>
       </c>
     </row>
     <row r="3">
@@ -181,10 +181,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.62918938643420952</v>
+        <v>0.62918938643420919</v>
       </c>
       <c r="C3">
-        <v>0.057984297697523335</v>
+        <v>0.057984297697522891</v>
       </c>
     </row>
     <row r="4">
@@ -192,10 +192,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.072752297338702143</v>
+        <v>0.072752297338702449</v>
       </c>
       <c r="C4">
-        <v>-0.69639970884600799</v>
+        <v>-0.6963997088460091</v>
       </c>
     </row>
     <row r="5">
@@ -203,10 +203,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.48789819414165547</v>
+        <v>0.48789819414165569</v>
       </c>
       <c r="C5">
-        <v>-0.063571356274132601</v>
+        <v>-0.063571356274133267</v>
       </c>
     </row>
     <row r="6">
@@ -214,10 +214,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.16500195472216664</v>
+        <v>0.16500195472216733</v>
       </c>
       <c r="C6">
-        <v>0.54729102534925467</v>
+        <v>0.54729102534925378</v>
       </c>
     </row>
   </sheetData>
@@ -234,10 +234,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.57669319867093316</v>
+        <v>0.57669319867093272</v>
       </c>
       <c r="C1">
-        <v>-0.053062280904800065</v>
+        <v>-0.053062280904799988</v>
       </c>
     </row>
     <row r="2">
@@ -245,10 +245,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.034466481631514258</v>
+        <v>-0.034466481631513328</v>
       </c>
       <c r="C2">
-        <v>0.45327925099288019</v>
+        <v>0.4532792509928788</v>
       </c>
     </row>
     <row r="3">
@@ -256,10 +256,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.62906463538540414</v>
+        <v>0.6290646353854038</v>
       </c>
       <c r="C3">
-        <v>0.056749661960085698</v>
+        <v>0.05674966196008506</v>
       </c>
     </row>
     <row r="4">
@@ -267,10 +267,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.074298513414796555</v>
+        <v>0.074298513414797138</v>
       </c>
       <c r="C4">
-        <v>-0.69654726342670548</v>
+        <v>-0.6965472634267067</v>
       </c>
     </row>
     <row r="5">
@@ -278,10 +278,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.48804236550571617</v>
+        <v>0.48804236550571639</v>
       </c>
       <c r="C5">
-        <v>-0.064529481614516382</v>
+        <v>-0.064529481614517201</v>
       </c>
     </row>
     <row r="6">
@@ -289,10 +289,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.16378820062675351</v>
+        <v>0.16378820062675398</v>
       </c>
       <c r="C6">
-        <v>0.54697087690096557</v>
+        <v>0.54697087690096469</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/PCA_ab_reason_noadjust.xlsx
+++ b/Tables/PCA_ab_reason_noadjust.xlsx
@@ -87,7 +87,7 @@
         <v>0.50576964947483405</v>
       </c>
       <c r="C1">
-        <v>0.28165890510409897</v>
+        <v>0.28165890510409985</v>
       </c>
     </row>
     <row r="2">
@@ -98,7 +98,7 @@
         <v>0.15351982404161627</v>
       </c>
       <c r="C2">
-        <v>-0.42772771218019146</v>
+        <v>-0.42772771218019034</v>
       </c>
     </row>
     <row r="3">
@@ -106,10 +106,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.59849596004191985</v>
+        <v>0.59849596004191996</v>
       </c>
       <c r="C3">
-        <v>0.20259330836538567</v>
+        <v>0.20259330836538589</v>
       </c>
     </row>
     <row r="4">
@@ -117,10 +117,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.21639956975126309</v>
+        <v>-0.21639956975126282</v>
       </c>
       <c r="C4">
-        <v>0.66591041248829674</v>
+        <v>0.66591041248829752</v>
       </c>
     </row>
     <row r="5">
@@ -128,10 +128,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.42001024081632243</v>
+        <v>0.42001024081632321</v>
       </c>
       <c r="C5">
-        <v>0.25627595048040769</v>
+        <v>0.25627595048040591</v>
       </c>
     </row>
     <row r="6">
@@ -139,10 +139,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3730870339890115</v>
+        <v>0.37308703398901116</v>
       </c>
       <c r="C6">
-        <v>-0.43308102770642809</v>
+        <v>-0.43308102770642942</v>
       </c>
     </row>
   </sheetData>
@@ -159,10 +159,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.57657430939880638</v>
+        <v>0.57657430939880683</v>
       </c>
       <c r="C1">
-        <v>-0.051930173267819624</v>
+        <v>-0.05193017326782054</v>
       </c>
     </row>
     <row r="2">
@@ -170,10 +170,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.033460305780854155</v>
+        <v>-0.0334603057808536</v>
       </c>
       <c r="C2">
-        <v>0.45321048098838279</v>
+        <v>0.45321048098838174</v>
       </c>
     </row>
     <row r="3">
@@ -181,10 +181,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.62918938643420919</v>
+        <v>0.62918938643420941</v>
       </c>
       <c r="C3">
-        <v>0.057984297697522891</v>
+        <v>0.057984297697522585</v>
       </c>
     </row>
     <row r="4">
@@ -192,10 +192,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.072752297338702449</v>
+        <v>0.072752297338702837</v>
       </c>
       <c r="C4">
-        <v>-0.6963997088460091</v>
+        <v>-0.69639970884600977</v>
       </c>
     </row>
     <row r="5">
@@ -206,7 +206,7 @@
         <v>0.48789819414165569</v>
       </c>
       <c r="C5">
-        <v>-0.063571356274133267</v>
+        <v>-0.063571356274131408</v>
       </c>
     </row>
     <row r="6">
@@ -214,10 +214,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.16500195472216733</v>
+        <v>0.16500195472216658</v>
       </c>
       <c r="C6">
-        <v>0.54729102534925378</v>
+        <v>0.54729102534925489</v>
       </c>
     </row>
   </sheetData>
@@ -234,10 +234,10 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.57669319867093272</v>
+        <v>0.57669319867093327</v>
       </c>
       <c r="C1">
-        <v>-0.053062280904799988</v>
+        <v>-0.053062280904800981</v>
       </c>
     </row>
     <row r="2">
@@ -245,10 +245,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.034466481631513328</v>
+        <v>-0.034466481631512842</v>
       </c>
       <c r="C2">
-        <v>0.4532792509928788</v>
+        <v>0.45327925099287775</v>
       </c>
     </row>
     <row r="3">
@@ -256,10 +256,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6290646353854038</v>
+        <v>0.62906463538540403</v>
       </c>
       <c r="C3">
-        <v>0.05674966196008506</v>
+        <v>0.056749661960084671</v>
       </c>
     </row>
     <row r="4">
@@ -267,10 +267,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.074298513414797138</v>
+        <v>0.074298513414797637</v>
       </c>
       <c r="C4">
-        <v>-0.6965472634267067</v>
+        <v>-0.69654726342670736</v>
       </c>
     </row>
     <row r="5">
@@ -281,7 +281,7 @@
         <v>0.48804236550571639</v>
       </c>
       <c r="C5">
-        <v>-0.064529481614517201</v>
+        <v>-0.06452948161451541</v>
       </c>
     </row>
     <row r="6">
@@ -289,10 +289,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.16378820062675398</v>
+        <v>0.16378820062675314</v>
       </c>
       <c r="C6">
-        <v>0.54697087690096469</v>
+        <v>0.5469708769009658</v>
       </c>
     </row>
   </sheetData>
